--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Slitrk3-Ptprs.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Slitrk3-Ptprs.xlsx
@@ -537,10 +537,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.7029529999999999</v>
+        <v>0.02439366666666666</v>
       </c>
       <c r="H2">
-        <v>2.108859</v>
+        <v>0.073181</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.127188333333334</v>
+        <v>3.556762333333333</v>
       </c>
       <c r="N2">
-        <v>12.381565</v>
+        <v>10.670287</v>
       </c>
       <c r="O2">
-        <v>0.05613591760223621</v>
+        <v>0.04280930450251701</v>
       </c>
       <c r="P2">
-        <v>0.05613591760223621</v>
+        <v>0.04280930450251701</v>
       </c>
       <c r="Q2">
-        <v>2.901219420481667</v>
+        <v>0.08676247477188888</v>
       </c>
       <c r="R2">
-        <v>26.110974784335</v>
+        <v>0.7808622729469999</v>
       </c>
       <c r="S2">
-        <v>0.05613591760223621</v>
+        <v>0.04280930450251701</v>
       </c>
       <c r="T2">
-        <v>0.05613591760223621</v>
+        <v>0.04280930450251701</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,10 +599,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.7029529999999999</v>
+        <v>0.02439366666666666</v>
       </c>
       <c r="H3">
-        <v>2.108859</v>
+        <v>0.073181</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -623,22 +623,22 @@
         <v>141.74704</v>
       </c>
       <c r="O3">
-        <v>0.6426570597336345</v>
+        <v>0.5686906263805706</v>
       </c>
       <c r="P3">
-        <v>0.6426570597336345</v>
+        <v>0.5686906263805704</v>
       </c>
       <c r="Q3">
-        <v>33.21383566970666</v>
+        <v>1.152576681582222</v>
       </c>
       <c r="R3">
-        <v>298.92452102736</v>
+        <v>10.37319013424</v>
       </c>
       <c r="S3">
-        <v>0.6426570597336345</v>
+        <v>0.5686906263805706</v>
       </c>
       <c r="T3">
-        <v>0.6426570597336345</v>
+        <v>0.5686906263805704</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,10 +661,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.7029529999999999</v>
+        <v>0.02439366666666666</v>
       </c>
       <c r="H4">
-        <v>2.108859</v>
+        <v>0.073181</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>13.92629833333334</v>
+        <v>24.53173066666666</v>
       </c>
       <c r="N4">
-        <v>41.77889500000001</v>
+        <v>73.595192</v>
       </c>
       <c r="O4">
-        <v>0.1894184303222152</v>
+        <v>0.2952646900921413</v>
       </c>
       <c r="P4">
-        <v>0.1894184303222152</v>
+        <v>0.2952646900921412</v>
       </c>
       <c r="Q4">
-        <v>9.789533192311668</v>
+        <v>0.598418860639111</v>
       </c>
       <c r="R4">
-        <v>88.10579873080501</v>
+        <v>5.385769745752</v>
       </c>
       <c r="S4">
-        <v>0.1894184303222152</v>
+        <v>0.2952646900921413</v>
       </c>
       <c r="T4">
-        <v>0.1894184303222152</v>
+        <v>0.2952646900921412</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,10 +723,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.7029529999999999</v>
+        <v>0.02439366666666666</v>
       </c>
       <c r="H5">
-        <v>2.108859</v>
+        <v>0.073181</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>8.218847999999999</v>
+        <v>7.746355333333334</v>
       </c>
       <c r="N5">
-        <v>24.656544</v>
+        <v>23.239066</v>
       </c>
       <c r="O5">
-        <v>0.1117885923419141</v>
+        <v>0.09323537902477132</v>
       </c>
       <c r="P5">
-        <v>0.1117885923419141</v>
+        <v>0.0932353790247713</v>
       </c>
       <c r="Q5">
-        <v>5.777463858143999</v>
+        <v>0.1889620098828889</v>
       </c>
       <c r="R5">
-        <v>51.99717472329599</v>
+        <v>1.700658088946</v>
       </c>
       <c r="S5">
-        <v>0.1117885923419141</v>
+        <v>0.09323537902477132</v>
       </c>
       <c r="T5">
-        <v>0.1117885923419141</v>
+        <v>0.0932353790247713</v>
       </c>
     </row>
   </sheetData>
